--- a/s27nets.xlsx
+++ b/s27nets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python37\Anaconda3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Net</t>
   </si>
@@ -128,22 +128,10 @@
     <t>N8</t>
   </si>
   <si>
-    <t>GT8</t>
-  </si>
-  <si>
-    <t>I2</t>
-  </si>
-  <si>
-    <t>I3</t>
-  </si>
-  <si>
     <t>s27</t>
   </si>
   <si>
     <t>golden circuit</t>
-  </si>
-  <si>
-    <t>combinational trojan</t>
   </si>
 </sst>
 </file>
@@ -461,75 +449,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -548,26 +509,8 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.86</v>
-      </c>
-      <c r="M6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -586,26 +529,8 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.24</v>
-      </c>
-      <c r="M7">
-        <v>0.02</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -624,26 +549,8 @@
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.24</v>
-      </c>
-      <c r="M8">
-        <v>0.02</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -662,26 +569,8 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.24</v>
-      </c>
-      <c r="M9">
-        <v>0.02</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -700,26 +589,8 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.24</v>
-      </c>
-      <c r="M10">
-        <v>0.02</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -738,26 +609,8 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.24</v>
-      </c>
-      <c r="M11">
-        <v>0.02</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -776,26 +629,8 @@
       <c r="F12">
         <v>2</v>
       </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.24</v>
-      </c>
-      <c r="M12">
-        <v>0.02</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -814,26 +649,8 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.24</v>
-      </c>
-      <c r="M13">
-        <v>0.02</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -852,26 +669,8 @@
       <c r="F14">
         <v>3</v>
       </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.24</v>
-      </c>
-      <c r="M14">
-        <v>0.02</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -890,26 +689,8 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.24</v>
-      </c>
-      <c r="M15">
-        <v>0.02</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -928,26 +709,8 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.24</v>
-      </c>
-      <c r="M16">
-        <v>0.02</v>
-      </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -966,26 +729,8 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17">
-        <v>4</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1.2</v>
-      </c>
-      <c r="M17">
-        <v>0.09</v>
-      </c>
-      <c r="N17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1004,26 +749,8 @@
       <c r="F18">
         <v>3</v>
       </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.86</v>
-      </c>
-      <c r="M18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1042,26 +769,8 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.24</v>
-      </c>
-      <c r="M19">
-        <v>0.02</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1080,26 +789,8 @@
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.54</v>
-      </c>
-      <c r="M20">
-        <v>0.04</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1118,26 +809,8 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="I21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.24</v>
-      </c>
-      <c r="M21">
-        <v>0.02</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1156,26 +829,8 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.24</v>
-      </c>
-      <c r="M22">
-        <v>0.02</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1194,26 +849,8 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="I23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.24</v>
-      </c>
-      <c r="M23">
-        <v>0.02</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1232,26 +869,8 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="I24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.54</v>
-      </c>
-      <c r="M24">
-        <v>0.04</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1270,26 +889,8 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="I25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.24</v>
-      </c>
-      <c r="M25">
-        <v>0.02</v>
-      </c>
-      <c r="N25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1308,26 +909,8 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="I26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.24</v>
-      </c>
-      <c r="M26">
-        <v>0.02</v>
-      </c>
-      <c r="N26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1346,26 +929,8 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="I27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.24</v>
-      </c>
-      <c r="M27">
-        <v>0.02</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1384,26 +949,8 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="I28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.24</v>
-      </c>
-      <c r="M28">
-        <v>0.02</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1422,26 +969,8 @@
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="I29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.24</v>
-      </c>
-      <c r="M29">
-        <v>0.02</v>
-      </c>
-      <c r="N29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1460,26 +989,8 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="I30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.24</v>
-      </c>
-      <c r="M30">
-        <v>0.02</v>
-      </c>
-      <c r="N30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1498,26 +1009,8 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.24</v>
-      </c>
-      <c r="M31">
-        <v>0.02</v>
-      </c>
-      <c r="N31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1534,84 +1027,6 @@
         <v>0.02</v>
       </c>
       <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="I32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.24</v>
-      </c>
-      <c r="M32">
-        <v>0.02</v>
-      </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I33" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0.24</v>
-      </c>
-      <c r="M33">
-        <v>0.02</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.24</v>
-      </c>
-      <c r="M34">
-        <v>0.02</v>
-      </c>
-      <c r="N34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I35" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0.24</v>
-      </c>
-      <c r="M35">
-        <v>0.02</v>
-      </c>
-      <c r="N35">
         <v>2</v>
       </c>
     </row>
